--- a/Text/03.테스트 시나리오/테스트 시나리오(철욱).xlsx
+++ b/Text/03.테스트 시나리오/테스트 시나리오(철욱).xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="메인 페이지" sheetId="1" r:id="rId1"/>
+    <sheet name="메인 페이지 (2)" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$134</definedName>
@@ -19,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>실제결과</t>
   </si>
@@ -289,6 +288,150 @@
   </si>
   <si>
     <t>1. 오른쪽 방향으로 이미지를 1번 슬라이드</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>메인페이지</t>
+  </si>
+  <si>
+    <t>F-MA-02</t>
+  </si>
+  <si>
+    <t>로그인이 되어있지 않을 시</t>
+  </si>
+  <si>
+    <t>1. 클릭 시 로그인 페이지로 이동</t>
+  </si>
+  <si>
+    <t>로그인이 되어있지 않을 경우</t>
+  </si>
+  <si>
+    <t>메인 페이지
+오른쪽 화살표 클릭한 경우</t>
+  </si>
+  <si>
+    <t>메인 페이지
+왼쪽 화살표를 클릭한 경우</t>
+  </si>
+  <si>
+    <t>F-MA-03</t>
+  </si>
+  <si>
+    <t>1. 클릭 시 회원가입 페이지로 이동</t>
+  </si>
+  <si>
+    <t>시험 일시가 지정되어 있을 경우</t>
+  </si>
+  <si>
+    <t>1. 시험 일시일까지 남은 일수만큼 D-Day 감소</t>
+  </si>
+  <si>
+    <t>1. 시험 일시일까지 남은 일수만큼 D-Day 감소
+2. D-Day 당일이 될 시 글씨체 Bold와 색 Red로 강조</t>
+  </si>
+  <si>
+    <t>1. 시험 일시일까지 남은 일수만큼 D-Day 감소
+2. D-Day 당일이 될 시 글씨체 Bold와 색 Red로 강조
+3. D-Day가 0이하일 경우 0으로 계속 유지</t>
+  </si>
+  <si>
+    <t>F-MA-04</t>
+  </si>
+  <si>
+    <t>F-MA-05</t>
+  </si>
+  <si>
+    <t>F-MA-06</t>
+  </si>
+  <si>
+    <t>F-MA-07</t>
+  </si>
+  <si>
+    <t>F-MA-08</t>
+  </si>
+  <si>
+    <t>이미지 링크 클릭 시</t>
+  </si>
+  <si>
+    <t>1. 클릭 시 시험 일정 페이지로 이등</t>
+  </si>
+  <si>
+    <t>2. 클릭 시 시험 일정 페이지로 이등</t>
+  </si>
+  <si>
+    <t>3. 클릭 시 시험 일정 페이지로 이등</t>
+  </si>
+  <si>
+    <t>4. 클릭 시 시험 일정 페이지로 이등</t>
+  </si>
+  <si>
+    <t>1. 클릭 시 문제 은행 페이지로 이등</t>
+  </si>
+  <si>
+    <t>1. 클릭 시 문제 유형 페이지로 이등</t>
+  </si>
+  <si>
+    <t>1. 클릭 시 교재 구매 페이지로 이등</t>
+  </si>
+  <si>
+    <t>1. 클릭 시 질문 게시판 페이지로 이등</t>
+  </si>
+  <si>
+    <t>1. 클릭 시 문제 유형 페이지로 이등
+2. 로그인이 되어있지 않을 시 이동 불가</t>
+  </si>
+  <si>
+    <t>1. 클릭 시 교재 구매 페이지로 이등
+2. 로그인이 되어있지 않을 시 이동 불가</t>
+  </si>
+  <si>
+    <t>F-MA-09</t>
+  </si>
+  <si>
+    <t>F-MA-10</t>
+  </si>
+  <si>
+    <t>F-MA-11</t>
+  </si>
+  <si>
+    <t>더보기' text 클릭 시</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '더보기' text 클릭 시</t>
+  </si>
+  <si>
+    <t>게시글 타이틀 클릭 시</t>
+  </si>
+  <si>
+    <t>로그인이 되어있을 경우</t>
+  </si>
+  <si>
+    <t>이미지 링크를 클릭 한 경우</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '더보기' text를 클릭 한 경우</t>
+  </si>
+  <si>
+    <t>게시글 타이틀을 클릭 한 경우</t>
+  </si>
+  <si>
+    <t>1. 각 타이틀에 해당하는 게시글로 이동</t>
+  </si>
+  <si>
+    <t>1. 클릭 시 타이틀에 맞는 게시글 상세내용으로 이동</t>
+  </si>
+  <si>
+    <t>1. 클릭 시 타이틀에 맞는 게시글 상세내용으로 이동
+2. 로그인이 되어있지 않을 경우 이동 불가
+3. 게시글 등록 시 해당 게시글 타이틀도 업데이트</t>
+  </si>
+  <si>
+    <t>1. '000님 환영합니다' 라는 문구 표시</t>
   </si>
 </sst>
 </file>
@@ -298,7 +441,7 @@
   <numFmts count="1">
     <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -428,12 +571,6 @@
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
       <color theme="0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
       <i/>
@@ -992,10 +1129,10 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1004,10 +1141,10 @@
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1016,10 +1153,10 @@
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1028,10 +1165,10 @@
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1040,10 +1177,10 @@
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1052,20 +1189,20 @@
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1138,13 +1275,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1155,6 +1292,123 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1498,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L228"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1508,7 +1762,7 @@
     <col min="2" max="3" width="10.75500011" customWidth="1" outlineLevel="0"/>
     <col min="4" max="5" width="15.63000011" customWidth="1" outlineLevel="0"/>
     <col min="6" max="6" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" width="17.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="19.75499916" customWidth="1" outlineLevel="0"/>
     <col min="8" max="8" width="15.63000011" customWidth="1" outlineLevel="0"/>
     <col min="9" max="9" width="5.63000011" customWidth="1" outlineLevel="0"/>
     <col min="10" max="11" width="15.63000011" customWidth="1" outlineLevel="0"/>
@@ -1517,7 +1771,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30.000000" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1533,7 +1787,7 @@
     </row>
     <row r="2" spans="1:12" ht="30.750000" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1716,7 +1970,7 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="49.500000" customHeight="1">
+    <row r="15" spans="1:12" ht="34.500000" customHeight="1">
       <c r="A15" s="27" t="s">
         <v>61</v>
       </c>
@@ -1736,7 +1990,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:12" ht="33.000000" customHeight="1">
+    <row r="16" spans="1:12" ht="34.500000" customHeight="1">
       <c r="A16" s="28"/>
       <c r="B16" s="25" t="s">
         <v>70</v>
@@ -1757,7 +2011,7 @@
     <row r="17" spans="1:12" ht="34.500000" customHeight="1">
       <c r="A17" s="28"/>
       <c r="B17" s="25" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -1772,10 +2026,10 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" ht="54.750000" customHeight="1">
+    <row r="18" spans="1:12" ht="34.500000" customHeight="1">
       <c r="A18" s="29"/>
       <c r="B18" s="25" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -1790,12 +2044,18 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" ht="54.750000" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="25"/>
+    <row r="19" spans="1:12" ht="20.000000" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="25" t="s">
+        <v>82</v>
+      </c>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="9"/>
@@ -1804,12 +2064,16 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" ht="45.000000" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+    <row r="20" spans="1:12" ht="20.000000" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="26" t="s">
+        <v>87</v>
+      </c>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
       <c r="H20" s="9"/>
@@ -1819,11 +2083,17 @@
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="48.000000" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>88</v>
+      </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
-      <c r="E21" s="25"/>
+      <c r="E21" s="25" t="s">
+        <v>91</v>
+      </c>
       <c r="F21" s="26"/>
       <c r="G21" s="26"/>
       <c r="H21" s="9"/>
@@ -1832,103 +2102,142 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" ht="48.750000" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+    <row r="22" spans="1:12" ht="20.000000" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" ht="33.750000" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+    <row r="23" spans="1:12" ht="34.500000" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" ht="51.000000" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
+    <row r="24" spans="1:12" ht="34.500000" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" ht="36.000000" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+    <row r="25" spans="1:12" ht="20.000000" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="66"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" ht="54.000000" customHeight="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+    <row r="26" spans="1:12" ht="20.000000" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+    <row r="27" spans="1:12" ht="58.500000" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="1:12" ht="20.000000" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12">
+      <c r="A29" s="1"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -4529,7 +4838,7 @@
       <c r="L228" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="869">
+  <mergeCells count="865">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A7:L7"/>
@@ -4559,11 +4868,10 @@
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B19:D20"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="K19:L19"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="K20:L20"/>
@@ -4571,19 +4879,16 @@
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H21:J21"/>
     <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B22:D25"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="K25:L25"/>
@@ -5408,32 +5713,3963 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L228"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" style="1" width="11.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="3" width="10.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="5" width="15.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="5.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="19.75499916" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="15.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="5.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="11" width="15.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="12" width="5.63000011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30.000000" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" ht="30.750000" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" ht="5.100000" customHeight="1"/>
+    <row r="4" spans="1:12">
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="D5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="6">
+        <v>43728</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" ht="5.100000" customHeight="1"/>
+    <row r="7" spans="1:12">
+      <c r="A7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" ht="63.750000" customHeight="1">
+      <c r="A8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
+    </row>
+    <row r="10" spans="1:12" ht="60.000000" customHeight="1">
+      <c r="A10" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="1:12" ht="100.500000" customHeight="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" ht="5.100000" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="24.000000" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="34.500000" customHeight="1">
+      <c r="A15" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" ht="34.500000" customHeight="1">
+      <c r="A16" s="28"/>
+      <c r="B16" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12" ht="34.500000" customHeight="1">
+      <c r="A17" s="28"/>
+      <c r="B17" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" ht="34.500000" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:12" ht="20.000000" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:12" ht="20.000000" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:12" ht="48.000000" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:12" ht="20.000000" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="1:12" ht="34.500000" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="1:12" ht="34.500000" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="1:12" ht="20.000000" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="66"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="1:12" ht="20.000000" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="1:12" ht="58.500000" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="1:12" ht="20.000000" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+    </row>
+    <row r="55" spans="2:12">
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+    </row>
+    <row r="62" spans="2:12">
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+    </row>
+    <row r="63" spans="2:12">
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+    </row>
+    <row r="64" spans="2:12">
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+    </row>
+    <row r="65" spans="2:12">
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+    </row>
+    <row r="66" spans="2:12">
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+    </row>
+    <row r="67" spans="2:12">
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+    </row>
+    <row r="68" spans="2:12">
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+    </row>
+    <row r="69" spans="2:12">
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+    </row>
+    <row r="70" spans="2:12">
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+    </row>
+    <row r="71" spans="2:12">
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+    </row>
+    <row r="72" spans="2:12">
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+    </row>
+    <row r="73" spans="2:12">
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+    </row>
+    <row r="76" spans="2:12">
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+    </row>
+    <row r="79" spans="2:12">
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+    </row>
+    <row r="80" spans="2:12">
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+    </row>
+    <row r="81" spans="2:12">
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+    </row>
+    <row r="82" spans="2:12">
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+    </row>
+    <row r="83" spans="2:12">
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+    </row>
+    <row r="84" spans="2:12">
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+    </row>
+    <row r="85" spans="2:12">
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+    </row>
+    <row r="86" spans="2:12">
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+    </row>
+    <row r="87" spans="2:12">
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+    </row>
+    <row r="88" spans="2:12">
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+    </row>
+    <row r="89" spans="2:12">
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+    </row>
+    <row r="90" spans="2:12">
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+    </row>
+    <row r="91" spans="2:12">
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+    </row>
+    <row r="92" spans="2:12">
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+    </row>
+    <row r="93" spans="2:12">
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+    </row>
+    <row r="94" spans="2:12">
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+    </row>
+    <row r="95" spans="2:12">
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+    </row>
+    <row r="96" spans="2:12">
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+    </row>
+    <row r="97" spans="2:12">
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+    </row>
+    <row r="98" spans="2:12">
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+    </row>
+    <row r="99" spans="2:12">
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+    </row>
+    <row r="100" spans="2:12">
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+    </row>
+    <row r="101" spans="2:12">
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+    </row>
+    <row r="102" spans="2:12">
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+    </row>
+    <row r="103" spans="2:12">
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+    </row>
+    <row r="104" spans="2:12">
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+    </row>
+    <row r="105" spans="2:12">
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+    </row>
+    <row r="106" spans="2:12">
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+    </row>
+    <row r="107" spans="2:12">
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+    </row>
+    <row r="108" spans="2:12">
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+    </row>
+    <row r="109" spans="2:12">
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+    </row>
+    <row r="110" spans="2:12">
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+    </row>
+    <row r="111" spans="2:12">
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+    </row>
+    <row r="112" spans="2:12">
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+    </row>
+    <row r="113" spans="2:12">
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+    </row>
+    <row r="114" spans="2:12">
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+    </row>
+    <row r="115" spans="2:12">
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
+    </row>
+    <row r="116" spans="2:12">
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+    </row>
+    <row r="117" spans="2:12">
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
+    </row>
+    <row r="118" spans="2:12">
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+    </row>
+    <row r="119" spans="2:12">
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
+    </row>
+    <row r="120" spans="2:12">
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
+    </row>
+    <row r="121" spans="2:12">
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
+      <c r="K121" s="7"/>
+      <c r="L121" s="7"/>
+    </row>
+    <row r="122" spans="2:12">
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
+      <c r="L122" s="7"/>
+    </row>
+    <row r="123" spans="2:12">
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
+    </row>
+    <row r="124" spans="2:12">
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
+    </row>
+    <row r="125" spans="2:12">
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="7"/>
+    </row>
+    <row r="126" spans="2:12">
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="7"/>
+    </row>
+    <row r="127" spans="2:12">
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="7"/>
+      <c r="K127" s="7"/>
+      <c r="L127" s="7"/>
+    </row>
+    <row r="128" spans="2:12">
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="7"/>
+      <c r="K128" s="7"/>
+      <c r="L128" s="7"/>
+    </row>
+    <row r="129" spans="2:12">
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="7"/>
+      <c r="K129" s="7"/>
+      <c r="L129" s="7"/>
+    </row>
+    <row r="130" spans="2:12">
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
+      <c r="K130" s="7"/>
+      <c r="L130" s="7"/>
+    </row>
+    <row r="131" spans="2:12">
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7"/>
+      <c r="J131" s="7"/>
+      <c r="K131" s="7"/>
+      <c r="L131" s="7"/>
+    </row>
+    <row r="132" spans="2:12">
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7"/>
+      <c r="J132" s="7"/>
+      <c r="K132" s="7"/>
+      <c r="L132" s="7"/>
+    </row>
+    <row r="133" spans="2:12">
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
+      <c r="K133" s="7"/>
+      <c r="L133" s="7"/>
+    </row>
+    <row r="134" spans="2:12">
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
+      <c r="J134" s="7"/>
+      <c r="K134" s="7"/>
+      <c r="L134" s="7"/>
+    </row>
+    <row r="135" spans="2:12">
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7"/>
+      <c r="J135" s="7"/>
+      <c r="K135" s="7"/>
+      <c r="L135" s="7"/>
+    </row>
+    <row r="136" spans="2:12">
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7"/>
+      <c r="J136" s="7"/>
+      <c r="K136" s="7"/>
+      <c r="L136" s="7"/>
+    </row>
+    <row r="137" spans="2:12">
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="7"/>
+      <c r="K137" s="7"/>
+      <c r="L137" s="7"/>
+    </row>
+    <row r="138" spans="2:12">
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="7"/>
+      <c r="K138" s="7"/>
+      <c r="L138" s="7"/>
+    </row>
+    <row r="139" spans="2:12">
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="7"/>
+      <c r="J139" s="7"/>
+      <c r="K139" s="7"/>
+      <c r="L139" s="7"/>
+    </row>
+    <row r="140" spans="2:12">
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="7"/>
+      <c r="J140" s="7"/>
+      <c r="K140" s="7"/>
+      <c r="L140" s="7"/>
+    </row>
+    <row r="141" spans="2:12">
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="7"/>
+      <c r="J141" s="7"/>
+      <c r="K141" s="7"/>
+      <c r="L141" s="7"/>
+    </row>
+    <row r="142" spans="2:12">
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7"/>
+      <c r="J142" s="7"/>
+      <c r="K142" s="7"/>
+      <c r="L142" s="7"/>
+    </row>
+    <row r="143" spans="2:12">
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="7"/>
+      <c r="K143" s="7"/>
+      <c r="L143" s="7"/>
+    </row>
+    <row r="144" spans="2:12">
+      <c r="B144" s="7"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="7"/>
+      <c r="J144" s="7"/>
+      <c r="K144" s="7"/>
+      <c r="L144" s="7"/>
+    </row>
+    <row r="145" spans="2:12">
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="7"/>
+      <c r="J145" s="7"/>
+      <c r="K145" s="7"/>
+      <c r="L145" s="7"/>
+    </row>
+    <row r="146" spans="2:12">
+      <c r="B146" s="7"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="7"/>
+      <c r="J146" s="7"/>
+      <c r="K146" s="7"/>
+      <c r="L146" s="7"/>
+    </row>
+    <row r="147" spans="2:12">
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7"/>
+      <c r="J147" s="7"/>
+      <c r="K147" s="7"/>
+      <c r="L147" s="7"/>
+    </row>
+    <row r="148" spans="2:12">
+      <c r="B148" s="7"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="7"/>
+      <c r="J148" s="7"/>
+      <c r="K148" s="7"/>
+      <c r="L148" s="7"/>
+    </row>
+    <row r="149" spans="2:12">
+      <c r="B149" s="7"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="7"/>
+      <c r="J149" s="7"/>
+      <c r="K149" s="7"/>
+      <c r="L149" s="7"/>
+    </row>
+    <row r="150" spans="2:12">
+      <c r="B150" s="7"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7"/>
+      <c r="J150" s="7"/>
+      <c r="K150" s="7"/>
+      <c r="L150" s="7"/>
+    </row>
+    <row r="151" spans="2:12">
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
+      <c r="J151" s="7"/>
+      <c r="K151" s="7"/>
+      <c r="L151" s="7"/>
+    </row>
+    <row r="152" spans="2:12">
+      <c r="B152" s="7"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="7"/>
+      <c r="L152" s="7"/>
+    </row>
+    <row r="153" spans="2:12">
+      <c r="B153" s="7"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="7"/>
+      <c r="L153" s="7"/>
+    </row>
+    <row r="154" spans="2:12">
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="7"/>
+      <c r="J154" s="7"/>
+      <c r="K154" s="7"/>
+      <c r="L154" s="7"/>
+    </row>
+    <row r="155" spans="2:12">
+      <c r="B155" s="7"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7"/>
+      <c r="J155" s="7"/>
+      <c r="K155" s="7"/>
+      <c r="L155" s="7"/>
+    </row>
+    <row r="156" spans="2:12">
+      <c r="B156" s="7"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7"/>
+      <c r="J156" s="7"/>
+      <c r="K156" s="7"/>
+      <c r="L156" s="7"/>
+    </row>
+    <row r="157" spans="2:12">
+      <c r="B157" s="7"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="7"/>
+      <c r="J157" s="7"/>
+      <c r="K157" s="7"/>
+      <c r="L157" s="7"/>
+    </row>
+    <row r="158" spans="2:12">
+      <c r="B158" s="7"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7"/>
+      <c r="J158" s="7"/>
+      <c r="K158" s="7"/>
+      <c r="L158" s="7"/>
+    </row>
+    <row r="159" spans="2:12">
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
+      <c r="L159" s="7"/>
+    </row>
+    <row r="160" spans="2:12">
+      <c r="B160" s="7"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="7"/>
+      <c r="L160" s="7"/>
+    </row>
+    <row r="161" spans="2:12">
+      <c r="B161" s="7"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="7"/>
+      <c r="J161" s="7"/>
+      <c r="K161" s="7"/>
+      <c r="L161" s="7"/>
+    </row>
+    <row r="162" spans="2:12">
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7"/>
+      <c r="J162" s="7"/>
+      <c r="K162" s="7"/>
+      <c r="L162" s="7"/>
+    </row>
+    <row r="163" spans="2:12">
+      <c r="B163" s="7"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="7"/>
+      <c r="J163" s="7"/>
+      <c r="K163" s="7"/>
+      <c r="L163" s="7"/>
+    </row>
+    <row r="164" spans="2:12">
+      <c r="B164" s="7"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="7"/>
+      <c r="J164" s="7"/>
+      <c r="K164" s="7"/>
+      <c r="L164" s="7"/>
+    </row>
+    <row r="165" spans="2:12">
+      <c r="B165" s="7"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="7"/>
+      <c r="J165" s="7"/>
+      <c r="K165" s="7"/>
+      <c r="L165" s="7"/>
+    </row>
+    <row r="166" spans="2:12">
+      <c r="B166" s="7"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="7"/>
+      <c r="J166" s="7"/>
+      <c r="K166" s="7"/>
+      <c r="L166" s="7"/>
+    </row>
+    <row r="167" spans="2:12">
+      <c r="B167" s="7"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="7"/>
+      <c r="J167" s="7"/>
+      <c r="K167" s="7"/>
+      <c r="L167" s="7"/>
+    </row>
+    <row r="168" spans="2:12">
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="7"/>
+      <c r="K168" s="7"/>
+      <c r="L168" s="7"/>
+    </row>
+    <row r="169" spans="2:12">
+      <c r="B169" s="7"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="7"/>
+      <c r="J169" s="7"/>
+      <c r="K169" s="7"/>
+      <c r="L169" s="7"/>
+    </row>
+    <row r="170" spans="2:12">
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="7"/>
+      <c r="J170" s="7"/>
+      <c r="K170" s="7"/>
+      <c r="L170" s="7"/>
+    </row>
+    <row r="171" spans="2:12">
+      <c r="B171" s="7"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="7"/>
+      <c r="J171" s="7"/>
+      <c r="K171" s="7"/>
+      <c r="L171" s="7"/>
+    </row>
+    <row r="172" spans="2:12">
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="7"/>
+      <c r="J172" s="7"/>
+      <c r="K172" s="7"/>
+      <c r="L172" s="7"/>
+    </row>
+    <row r="173" spans="2:12">
+      <c r="B173" s="7"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="7"/>
+      <c r="J173" s="7"/>
+      <c r="K173" s="7"/>
+      <c r="L173" s="7"/>
+    </row>
+    <row r="174" spans="2:12">
+      <c r="B174" s="7"/>
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="7"/>
+      <c r="J174" s="7"/>
+      <c r="K174" s="7"/>
+      <c r="L174" s="7"/>
+    </row>
+    <row r="175" spans="2:12">
+      <c r="B175" s="7"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="7"/>
+      <c r="J175" s="7"/>
+      <c r="K175" s="7"/>
+      <c r="L175" s="7"/>
+    </row>
+    <row r="176" spans="2:12">
+      <c r="B176" s="7"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="7"/>
+      <c r="J176" s="7"/>
+      <c r="K176" s="7"/>
+      <c r="L176" s="7"/>
+    </row>
+    <row r="177" spans="2:12">
+      <c r="B177" s="7"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="7"/>
+      <c r="J177" s="7"/>
+      <c r="K177" s="7"/>
+      <c r="L177" s="7"/>
+    </row>
+    <row r="178" spans="2:12">
+      <c r="B178" s="7"/>
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="7"/>
+      <c r="J178" s="7"/>
+      <c r="K178" s="7"/>
+      <c r="L178" s="7"/>
+    </row>
+    <row r="179" spans="2:12">
+      <c r="B179" s="7"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="7"/>
+      <c r="J179" s="7"/>
+      <c r="K179" s="7"/>
+      <c r="L179" s="7"/>
+    </row>
+    <row r="180" spans="2:12">
+      <c r="B180" s="7"/>
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
+      <c r="I180" s="7"/>
+      <c r="J180" s="7"/>
+      <c r="K180" s="7"/>
+      <c r="L180" s="7"/>
+    </row>
+    <row r="181" spans="2:12">
+      <c r="B181" s="7"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="7"/>
+      <c r="J181" s="7"/>
+      <c r="K181" s="7"/>
+      <c r="L181" s="7"/>
+    </row>
+    <row r="182" spans="2:12">
+      <c r="B182" s="7"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="7"/>
+      <c r="J182" s="7"/>
+      <c r="K182" s="7"/>
+      <c r="L182" s="7"/>
+    </row>
+    <row r="183" spans="2:12">
+      <c r="B183" s="7"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="7"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="7"/>
+      <c r="J183" s="7"/>
+      <c r="K183" s="7"/>
+      <c r="L183" s="7"/>
+    </row>
+    <row r="184" spans="2:12">
+      <c r="B184" s="7"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7"/>
+      <c r="I184" s="7"/>
+      <c r="J184" s="7"/>
+      <c r="K184" s="7"/>
+      <c r="L184" s="7"/>
+    </row>
+    <row r="185" spans="2:12">
+      <c r="B185" s="7"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="7"/>
+      <c r="J185" s="7"/>
+      <c r="K185" s="7"/>
+      <c r="L185" s="7"/>
+    </row>
+    <row r="186" spans="2:12">
+      <c r="B186" s="7"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="7"/>
+      <c r="F186" s="7"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="7"/>
+      <c r="I186" s="7"/>
+      <c r="J186" s="7"/>
+      <c r="K186" s="7"/>
+      <c r="L186" s="7"/>
+    </row>
+    <row r="187" spans="2:12">
+      <c r="B187" s="7"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
+      <c r="I187" s="7"/>
+      <c r="J187" s="7"/>
+      <c r="K187" s="7"/>
+      <c r="L187" s="7"/>
+    </row>
+    <row r="188" spans="2:12">
+      <c r="B188" s="7"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="7"/>
+      <c r="F188" s="7"/>
+      <c r="G188" s="7"/>
+      <c r="H188" s="7"/>
+      <c r="I188" s="7"/>
+      <c r="J188" s="7"/>
+      <c r="K188" s="7"/>
+      <c r="L188" s="7"/>
+    </row>
+    <row r="189" spans="2:12">
+      <c r="B189" s="7"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="7"/>
+      <c r="J189" s="7"/>
+      <c r="K189" s="7"/>
+      <c r="L189" s="7"/>
+    </row>
+    <row r="190" spans="2:12">
+      <c r="B190" s="7"/>
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7"/>
+      <c r="I190" s="7"/>
+      <c r="J190" s="7"/>
+      <c r="K190" s="7"/>
+      <c r="L190" s="7"/>
+    </row>
+    <row r="191" spans="2:12">
+      <c r="B191" s="7"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="7"/>
+      <c r="J191" s="7"/>
+      <c r="K191" s="7"/>
+      <c r="L191" s="7"/>
+    </row>
+    <row r="192" spans="2:12">
+      <c r="B192" s="7"/>
+      <c r="C192" s="7"/>
+      <c r="D192" s="7"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="7"/>
+      <c r="G192" s="7"/>
+      <c r="H192" s="7"/>
+      <c r="I192" s="7"/>
+      <c r="J192" s="7"/>
+      <c r="K192" s="7"/>
+      <c r="L192" s="7"/>
+    </row>
+    <row r="193" spans="2:12">
+      <c r="B193" s="7"/>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7"/>
+      <c r="I193" s="7"/>
+      <c r="J193" s="7"/>
+      <c r="K193" s="7"/>
+      <c r="L193" s="7"/>
+    </row>
+    <row r="194" spans="2:12">
+      <c r="B194" s="7"/>
+      <c r="C194" s="7"/>
+      <c r="D194" s="7"/>
+      <c r="E194" s="7"/>
+      <c r="F194" s="7"/>
+      <c r="G194" s="7"/>
+      <c r="H194" s="7"/>
+      <c r="I194" s="7"/>
+      <c r="J194" s="7"/>
+      <c r="K194" s="7"/>
+      <c r="L194" s="7"/>
+    </row>
+    <row r="195" spans="2:12">
+      <c r="B195" s="7"/>
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7"/>
+      <c r="G195" s="7"/>
+      <c r="H195" s="7"/>
+      <c r="I195" s="7"/>
+      <c r="J195" s="7"/>
+      <c r="K195" s="7"/>
+      <c r="L195" s="7"/>
+    </row>
+    <row r="196" spans="2:12">
+      <c r="B196" s="7"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
+      <c r="G196" s="7"/>
+      <c r="H196" s="7"/>
+      <c r="I196" s="7"/>
+      <c r="J196" s="7"/>
+      <c r="K196" s="7"/>
+      <c r="L196" s="7"/>
+    </row>
+    <row r="197" spans="2:12">
+      <c r="B197" s="7"/>
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
+      <c r="G197" s="7"/>
+      <c r="H197" s="7"/>
+      <c r="I197" s="7"/>
+      <c r="J197" s="7"/>
+      <c r="K197" s="7"/>
+      <c r="L197" s="7"/>
+    </row>
+    <row r="198" spans="2:12">
+      <c r="B198" s="7"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
+      <c r="G198" s="7"/>
+      <c r="H198" s="7"/>
+      <c r="I198" s="7"/>
+      <c r="J198" s="7"/>
+      <c r="K198" s="7"/>
+      <c r="L198" s="7"/>
+    </row>
+    <row r="199" spans="2:12">
+      <c r="B199" s="7"/>
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="7"/>
+      <c r="F199" s="7"/>
+      <c r="G199" s="7"/>
+      <c r="H199" s="7"/>
+      <c r="I199" s="7"/>
+      <c r="J199" s="7"/>
+      <c r="K199" s="7"/>
+      <c r="L199" s="7"/>
+    </row>
+    <row r="200" spans="2:12">
+      <c r="B200" s="7"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="7"/>
+      <c r="F200" s="7"/>
+      <c r="G200" s="7"/>
+      <c r="H200" s="7"/>
+      <c r="I200" s="7"/>
+      <c r="J200" s="7"/>
+      <c r="K200" s="7"/>
+      <c r="L200" s="7"/>
+    </row>
+    <row r="201" spans="2:12">
+      <c r="B201" s="7"/>
+      <c r="C201" s="7"/>
+      <c r="D201" s="7"/>
+      <c r="E201" s="7"/>
+      <c r="F201" s="7"/>
+      <c r="G201" s="7"/>
+      <c r="H201" s="7"/>
+      <c r="I201" s="7"/>
+      <c r="J201" s="7"/>
+      <c r="K201" s="7"/>
+      <c r="L201" s="7"/>
+    </row>
+    <row r="202" spans="2:12">
+      <c r="B202" s="7"/>
+      <c r="C202" s="7"/>
+      <c r="D202" s="7"/>
+      <c r="E202" s="7"/>
+      <c r="F202" s="7"/>
+      <c r="G202" s="7"/>
+      <c r="H202" s="7"/>
+      <c r="I202" s="7"/>
+      <c r="J202" s="7"/>
+      <c r="K202" s="7"/>
+      <c r="L202" s="7"/>
+    </row>
+    <row r="203" spans="2:12">
+      <c r="B203" s="7"/>
+      <c r="C203" s="7"/>
+      <c r="D203" s="7"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="7"/>
+      <c r="G203" s="7"/>
+      <c r="H203" s="7"/>
+      <c r="I203" s="7"/>
+      <c r="J203" s="7"/>
+      <c r="K203" s="7"/>
+      <c r="L203" s="7"/>
+    </row>
+    <row r="204" spans="2:12">
+      <c r="B204" s="7"/>
+      <c r="C204" s="7"/>
+      <c r="D204" s="7"/>
+      <c r="E204" s="7"/>
+      <c r="F204" s="7"/>
+      <c r="G204" s="7"/>
+      <c r="H204" s="7"/>
+      <c r="I204" s="7"/>
+      <c r="J204" s="7"/>
+      <c r="K204" s="7"/>
+      <c r="L204" s="7"/>
+    </row>
+    <row r="205" spans="2:12">
+      <c r="B205" s="7"/>
+      <c r="C205" s="7"/>
+      <c r="D205" s="7"/>
+      <c r="E205" s="7"/>
+      <c r="F205" s="7"/>
+      <c r="G205" s="7"/>
+      <c r="H205" s="7"/>
+      <c r="I205" s="7"/>
+      <c r="J205" s="7"/>
+      <c r="K205" s="7"/>
+      <c r="L205" s="7"/>
+    </row>
+    <row r="206" spans="2:12">
+      <c r="B206" s="7"/>
+      <c r="C206" s="7"/>
+      <c r="D206" s="7"/>
+      <c r="E206" s="7"/>
+      <c r="F206" s="7"/>
+      <c r="G206" s="7"/>
+      <c r="H206" s="7"/>
+      <c r="I206" s="7"/>
+      <c r="J206" s="7"/>
+      <c r="K206" s="7"/>
+      <c r="L206" s="7"/>
+    </row>
+    <row r="207" spans="2:12">
+      <c r="B207" s="7"/>
+      <c r="C207" s="7"/>
+      <c r="D207" s="7"/>
+      <c r="E207" s="7"/>
+      <c r="F207" s="7"/>
+      <c r="G207" s="7"/>
+      <c r="H207" s="7"/>
+      <c r="I207" s="7"/>
+      <c r="J207" s="7"/>
+      <c r="K207" s="7"/>
+      <c r="L207" s="7"/>
+    </row>
+    <row r="208" spans="2:12">
+      <c r="B208" s="7"/>
+      <c r="C208" s="7"/>
+      <c r="D208" s="7"/>
+      <c r="E208" s="7"/>
+      <c r="F208" s="7"/>
+      <c r="G208" s="7"/>
+      <c r="H208" s="7"/>
+      <c r="I208" s="7"/>
+      <c r="J208" s="7"/>
+      <c r="K208" s="7"/>
+      <c r="L208" s="7"/>
+    </row>
+    <row r="209" spans="2:12">
+      <c r="B209" s="7"/>
+      <c r="C209" s="7"/>
+      <c r="D209" s="7"/>
+      <c r="E209" s="7"/>
+      <c r="F209" s="7"/>
+      <c r="G209" s="7"/>
+      <c r="H209" s="7"/>
+      <c r="I209" s="7"/>
+      <c r="J209" s="7"/>
+      <c r="K209" s="7"/>
+      <c r="L209" s="7"/>
+    </row>
+    <row r="210" spans="2:12">
+      <c r="B210" s="7"/>
+      <c r="C210" s="7"/>
+      <c r="D210" s="7"/>
+      <c r="E210" s="7"/>
+      <c r="F210" s="7"/>
+      <c r="G210" s="7"/>
+      <c r="H210" s="7"/>
+      <c r="I210" s="7"/>
+      <c r="J210" s="7"/>
+      <c r="K210" s="7"/>
+      <c r="L210" s="7"/>
+    </row>
+    <row r="211" spans="2:12">
+      <c r="B211" s="7"/>
+      <c r="C211" s="7"/>
+      <c r="D211" s="7"/>
+      <c r="E211" s="7"/>
+      <c r="F211" s="7"/>
+      <c r="G211" s="7"/>
+      <c r="H211" s="7"/>
+      <c r="I211" s="7"/>
+      <c r="J211" s="7"/>
+      <c r="K211" s="7"/>
+      <c r="L211" s="7"/>
+    </row>
+    <row r="212" spans="2:12">
+      <c r="B212" s="7"/>
+      <c r="C212" s="7"/>
+      <c r="D212" s="7"/>
+      <c r="E212" s="7"/>
+      <c r="F212" s="7"/>
+      <c r="G212" s="7"/>
+      <c r="H212" s="7"/>
+      <c r="I212" s="7"/>
+      <c r="J212" s="7"/>
+      <c r="K212" s="7"/>
+      <c r="L212" s="7"/>
+    </row>
+    <row r="213" spans="2:12">
+      <c r="B213" s="7"/>
+      <c r="C213" s="7"/>
+      <c r="D213" s="7"/>
+      <c r="E213" s="7"/>
+      <c r="F213" s="7"/>
+      <c r="G213" s="7"/>
+      <c r="H213" s="7"/>
+      <c r="I213" s="7"/>
+      <c r="J213" s="7"/>
+      <c r="K213" s="7"/>
+      <c r="L213" s="7"/>
+    </row>
+    <row r="214" spans="2:12">
+      <c r="B214" s="7"/>
+      <c r="C214" s="7"/>
+      <c r="D214" s="7"/>
+      <c r="E214" s="7"/>
+      <c r="F214" s="7"/>
+      <c r="G214" s="7"/>
+      <c r="H214" s="7"/>
+      <c r="I214" s="7"/>
+      <c r="J214" s="7"/>
+      <c r="K214" s="7"/>
+      <c r="L214" s="7"/>
+    </row>
+    <row r="215" spans="2:12">
+      <c r="B215" s="7"/>
+      <c r="C215" s="7"/>
+      <c r="D215" s="7"/>
+      <c r="E215" s="7"/>
+      <c r="F215" s="7"/>
+      <c r="G215" s="7"/>
+      <c r="H215" s="7"/>
+      <c r="I215" s="7"/>
+      <c r="J215" s="7"/>
+      <c r="K215" s="7"/>
+      <c r="L215" s="7"/>
+    </row>
+    <row r="216" spans="2:12">
+      <c r="B216" s="7"/>
+      <c r="C216" s="7"/>
+      <c r="D216" s="7"/>
+      <c r="E216" s="7"/>
+      <c r="F216" s="7"/>
+      <c r="G216" s="7"/>
+      <c r="H216" s="7"/>
+      <c r="I216" s="7"/>
+      <c r="J216" s="7"/>
+      <c r="K216" s="7"/>
+      <c r="L216" s="7"/>
+    </row>
+    <row r="217" spans="2:12">
+      <c r="B217" s="7"/>
+      <c r="C217" s="7"/>
+      <c r="D217" s="7"/>
+      <c r="E217" s="7"/>
+      <c r="F217" s="7"/>
+      <c r="G217" s="7"/>
+      <c r="H217" s="7"/>
+      <c r="I217" s="7"/>
+      <c r="J217" s="7"/>
+      <c r="K217" s="7"/>
+      <c r="L217" s="7"/>
+    </row>
+    <row r="218" spans="2:12">
+      <c r="B218" s="7"/>
+      <c r="C218" s="7"/>
+      <c r="D218" s="7"/>
+      <c r="E218" s="7"/>
+      <c r="F218" s="7"/>
+      <c r="G218" s="7"/>
+      <c r="H218" s="7"/>
+      <c r="I218" s="7"/>
+      <c r="J218" s="7"/>
+      <c r="K218" s="7"/>
+      <c r="L218" s="7"/>
+    </row>
+    <row r="219" spans="2:12">
+      <c r="B219" s="7"/>
+      <c r="C219" s="7"/>
+      <c r="D219" s="7"/>
+      <c r="E219" s="7"/>
+      <c r="F219" s="7"/>
+      <c r="G219" s="7"/>
+      <c r="H219" s="7"/>
+      <c r="I219" s="7"/>
+      <c r="J219" s="7"/>
+      <c r="K219" s="7"/>
+      <c r="L219" s="7"/>
+    </row>
+    <row r="220" spans="2:12">
+      <c r="B220" s="7"/>
+      <c r="C220" s="7"/>
+      <c r="D220" s="7"/>
+      <c r="E220" s="7"/>
+      <c r="F220" s="7"/>
+      <c r="G220" s="7"/>
+      <c r="H220" s="7"/>
+      <c r="I220" s="7"/>
+      <c r="J220" s="7"/>
+      <c r="K220" s="7"/>
+      <c r="L220" s="7"/>
+    </row>
+    <row r="221" spans="2:12">
+      <c r="B221" s="7"/>
+      <c r="C221" s="7"/>
+      <c r="D221" s="7"/>
+      <c r="E221" s="7"/>
+      <c r="F221" s="7"/>
+      <c r="G221" s="7"/>
+      <c r="H221" s="7"/>
+      <c r="I221" s="7"/>
+      <c r="J221" s="7"/>
+      <c r="K221" s="7"/>
+      <c r="L221" s="7"/>
+    </row>
+    <row r="222" spans="2:12">
+      <c r="B222" s="7"/>
+      <c r="C222" s="7"/>
+      <c r="D222" s="7"/>
+      <c r="E222" s="7"/>
+      <c r="F222" s="7"/>
+      <c r="G222" s="7"/>
+      <c r="H222" s="7"/>
+      <c r="I222" s="7"/>
+      <c r="J222" s="7"/>
+      <c r="K222" s="7"/>
+      <c r="L222" s="7"/>
+    </row>
+    <row r="223" spans="2:12">
+      <c r="B223" s="7"/>
+      <c r="C223" s="7"/>
+      <c r="D223" s="7"/>
+      <c r="E223" s="7"/>
+      <c r="F223" s="7"/>
+      <c r="G223" s="7"/>
+      <c r="H223" s="7"/>
+      <c r="I223" s="7"/>
+      <c r="J223" s="7"/>
+      <c r="K223" s="7"/>
+      <c r="L223" s="7"/>
+    </row>
+    <row r="224" spans="2:12">
+      <c r="B224" s="7"/>
+      <c r="C224" s="7"/>
+      <c r="D224" s="7"/>
+      <c r="E224" s="7"/>
+      <c r="F224" s="7"/>
+      <c r="G224" s="7"/>
+      <c r="H224" s="7"/>
+      <c r="I224" s="7"/>
+      <c r="J224" s="7"/>
+      <c r="K224" s="7"/>
+      <c r="L224" s="7"/>
+    </row>
+    <row r="225" spans="2:12">
+      <c r="B225" s="7"/>
+      <c r="C225" s="7"/>
+      <c r="D225" s="7"/>
+      <c r="E225" s="7"/>
+      <c r="F225" s="7"/>
+      <c r="G225" s="7"/>
+      <c r="H225" s="7"/>
+      <c r="I225" s="7"/>
+      <c r="J225" s="7"/>
+      <c r="K225" s="7"/>
+      <c r="L225" s="7"/>
+    </row>
+    <row r="226" spans="2:12">
+      <c r="B226" s="7"/>
+      <c r="C226" s="7"/>
+      <c r="D226" s="7"/>
+      <c r="E226" s="7"/>
+      <c r="F226" s="7"/>
+      <c r="G226" s="7"/>
+      <c r="H226" s="7"/>
+      <c r="I226" s="7"/>
+      <c r="J226" s="7"/>
+      <c r="K226" s="7"/>
+      <c r="L226" s="7"/>
+    </row>
+    <row r="227" spans="2:12">
+      <c r="B227" s="7"/>
+      <c r="C227" s="7"/>
+      <c r="D227" s="7"/>
+      <c r="E227" s="7"/>
+      <c r="F227" s="7"/>
+      <c r="G227" s="7"/>
+      <c r="H227" s="7"/>
+      <c r="I227" s="7"/>
+      <c r="J227" s="7"/>
+      <c r="K227" s="7"/>
+      <c r="L227" s="7"/>
+    </row>
+    <row r="228" spans="2:12">
+      <c r="B228" s="7"/>
+      <c r="C228" s="7"/>
+      <c r="D228" s="7"/>
+      <c r="E228" s="7"/>
+      <c r="F228" s="7"/>
+      <c r="G228" s="7"/>
+      <c r="H228" s="7"/>
+      <c r="I228" s="7"/>
+      <c r="J228" s="7"/>
+      <c r="K228" s="7"/>
+      <c r="L228" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="865">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B22:D25"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="K104:L104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="E107:G107"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="K107:L107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="K108:L108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="E109:G109"/>
+    <mergeCell ref="H109:J109"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="E110:G110"/>
+    <mergeCell ref="H110:J110"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="H111:J111"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="E114:G114"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="H115:J115"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="H116:J116"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="E117:G117"/>
+    <mergeCell ref="H117:J117"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="E118:G118"/>
+    <mergeCell ref="H118:J118"/>
+    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="E119:G119"/>
+    <mergeCell ref="H119:J119"/>
+    <mergeCell ref="K119:L119"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="E120:G120"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="E121:G121"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="E122:G122"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="E123:G123"/>
+    <mergeCell ref="H123:J123"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="H124:J124"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="E125:G125"/>
+    <mergeCell ref="H125:J125"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="E126:G126"/>
+    <mergeCell ref="H126:J126"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="H127:J127"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="H128:J128"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:L129"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="K130:L130"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="E131:G131"/>
+    <mergeCell ref="H131:J131"/>
+    <mergeCell ref="K131:L131"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="E132:G132"/>
+    <mergeCell ref="H132:J132"/>
+    <mergeCell ref="K132:L132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="E133:G133"/>
+    <mergeCell ref="H133:J133"/>
+    <mergeCell ref="K133:L133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="E134:G134"/>
+    <mergeCell ref="H134:J134"/>
+    <mergeCell ref="K134:L134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="E135:G135"/>
+    <mergeCell ref="H135:J135"/>
+    <mergeCell ref="K135:L135"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="E136:G136"/>
+    <mergeCell ref="H136:J136"/>
+    <mergeCell ref="K136:L136"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="E137:G137"/>
+    <mergeCell ref="H137:J137"/>
+    <mergeCell ref="K137:L137"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="E138:G138"/>
+    <mergeCell ref="H138:J138"/>
+    <mergeCell ref="K138:L138"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="E139:G139"/>
+    <mergeCell ref="H139:J139"/>
+    <mergeCell ref="K139:L139"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="E140:G140"/>
+    <mergeCell ref="H140:J140"/>
+    <mergeCell ref="K140:L140"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="E141:G141"/>
+    <mergeCell ref="H141:J141"/>
+    <mergeCell ref="K141:L141"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="E142:G142"/>
+    <mergeCell ref="H142:J142"/>
+    <mergeCell ref="K142:L142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:L143"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="E144:G144"/>
+    <mergeCell ref="H144:J144"/>
+    <mergeCell ref="K144:L144"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="E145:G145"/>
+    <mergeCell ref="H145:J145"/>
+    <mergeCell ref="K145:L145"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="E146:G146"/>
+    <mergeCell ref="H146:J146"/>
+    <mergeCell ref="K146:L146"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="E147:G147"/>
+    <mergeCell ref="H147:J147"/>
+    <mergeCell ref="K147:L147"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="E148:G148"/>
+    <mergeCell ref="H148:J148"/>
+    <mergeCell ref="K148:L148"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="E149:G149"/>
+    <mergeCell ref="H149:J149"/>
+    <mergeCell ref="K149:L149"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="E150:G150"/>
+    <mergeCell ref="H150:J150"/>
+    <mergeCell ref="K150:L150"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="E151:G151"/>
+    <mergeCell ref="H151:J151"/>
+    <mergeCell ref="K151:L151"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="H152:J152"/>
+    <mergeCell ref="K152:L152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="E153:G153"/>
+    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="K153:L153"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="E154:G154"/>
+    <mergeCell ref="H154:J154"/>
+    <mergeCell ref="K154:L154"/>
+    <mergeCell ref="B155:D155"/>
+    <mergeCell ref="E155:G155"/>
+    <mergeCell ref="H155:J155"/>
+    <mergeCell ref="K155:L155"/>
+    <mergeCell ref="B156:D156"/>
+    <mergeCell ref="E156:G156"/>
+    <mergeCell ref="H156:J156"/>
+    <mergeCell ref="K156:L156"/>
+    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="E157:G157"/>
+    <mergeCell ref="H157:J157"/>
+    <mergeCell ref="K157:L157"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="K158:L158"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="E159:G159"/>
+    <mergeCell ref="H159:J159"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="B160:D160"/>
+    <mergeCell ref="E160:G160"/>
+    <mergeCell ref="H160:J160"/>
+    <mergeCell ref="K160:L160"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="E161:G161"/>
+    <mergeCell ref="H161:J161"/>
+    <mergeCell ref="K161:L161"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="E162:G162"/>
+    <mergeCell ref="H162:J162"/>
+    <mergeCell ref="K162:L162"/>
+    <mergeCell ref="B163:D163"/>
+    <mergeCell ref="E163:G163"/>
+    <mergeCell ref="H163:J163"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="B164:D164"/>
+    <mergeCell ref="E164:G164"/>
+    <mergeCell ref="H164:J164"/>
+    <mergeCell ref="K164:L164"/>
+    <mergeCell ref="B165:D165"/>
+    <mergeCell ref="E165:G165"/>
+    <mergeCell ref="H165:J165"/>
+    <mergeCell ref="K165:L165"/>
+    <mergeCell ref="B166:D166"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="H166:J166"/>
+    <mergeCell ref="K166:L166"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="E167:G167"/>
+    <mergeCell ref="H167:J167"/>
+    <mergeCell ref="K167:L167"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="E168:G168"/>
+    <mergeCell ref="H168:J168"/>
+    <mergeCell ref="K168:L168"/>
+    <mergeCell ref="B169:D169"/>
+    <mergeCell ref="E169:G169"/>
+    <mergeCell ref="H169:J169"/>
+    <mergeCell ref="K169:L169"/>
+    <mergeCell ref="B170:D170"/>
+    <mergeCell ref="E170:G170"/>
+    <mergeCell ref="H170:J170"/>
+    <mergeCell ref="K170:L170"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="E171:G171"/>
+    <mergeCell ref="H171:J171"/>
+    <mergeCell ref="K171:L171"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="H172:J172"/>
+    <mergeCell ref="K172:L172"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="E173:G173"/>
+    <mergeCell ref="H173:J173"/>
+    <mergeCell ref="K173:L173"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="E174:G174"/>
+    <mergeCell ref="H174:J174"/>
+    <mergeCell ref="K174:L174"/>
+    <mergeCell ref="B175:D175"/>
+    <mergeCell ref="E175:G175"/>
+    <mergeCell ref="H175:J175"/>
+    <mergeCell ref="K175:L175"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="E176:G176"/>
+    <mergeCell ref="H176:J176"/>
+    <mergeCell ref="K176:L176"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="E177:G177"/>
+    <mergeCell ref="H177:J177"/>
+    <mergeCell ref="K177:L177"/>
+    <mergeCell ref="B178:D178"/>
+    <mergeCell ref="E178:G178"/>
+    <mergeCell ref="H178:J178"/>
+    <mergeCell ref="K178:L178"/>
+    <mergeCell ref="B179:D179"/>
+    <mergeCell ref="E179:G179"/>
+    <mergeCell ref="H179:J179"/>
+    <mergeCell ref="K179:L179"/>
+    <mergeCell ref="B180:D180"/>
+    <mergeCell ref="E180:G180"/>
+    <mergeCell ref="H180:J180"/>
+    <mergeCell ref="K180:L180"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="E181:G181"/>
+    <mergeCell ref="H181:J181"/>
+    <mergeCell ref="K181:L181"/>
+    <mergeCell ref="B182:D182"/>
+    <mergeCell ref="E182:G182"/>
+    <mergeCell ref="H182:J182"/>
+    <mergeCell ref="K182:L182"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="E183:G183"/>
+    <mergeCell ref="H183:J183"/>
+    <mergeCell ref="K183:L183"/>
+    <mergeCell ref="B184:D184"/>
+    <mergeCell ref="E184:G184"/>
+    <mergeCell ref="H184:J184"/>
+    <mergeCell ref="K184:L184"/>
+    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="E185:G185"/>
+    <mergeCell ref="H185:J185"/>
+    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="B186:D186"/>
+    <mergeCell ref="E186:G186"/>
+    <mergeCell ref="H186:J186"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="E187:G187"/>
+    <mergeCell ref="H187:J187"/>
+    <mergeCell ref="K187:L187"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="E188:G188"/>
+    <mergeCell ref="H188:J188"/>
+    <mergeCell ref="K188:L188"/>
+    <mergeCell ref="B189:D189"/>
+    <mergeCell ref="E189:G189"/>
+    <mergeCell ref="H189:J189"/>
+    <mergeCell ref="K189:L189"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="E190:G190"/>
+    <mergeCell ref="H190:J190"/>
+    <mergeCell ref="K190:L190"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="E191:G191"/>
+    <mergeCell ref="H191:J191"/>
+    <mergeCell ref="K191:L191"/>
+    <mergeCell ref="B192:D192"/>
+    <mergeCell ref="E192:G192"/>
+    <mergeCell ref="H192:J192"/>
+    <mergeCell ref="K192:L192"/>
+    <mergeCell ref="B193:D193"/>
+    <mergeCell ref="E193:G193"/>
+    <mergeCell ref="H193:J193"/>
+    <mergeCell ref="K193:L193"/>
+    <mergeCell ref="B194:D194"/>
+    <mergeCell ref="E194:G194"/>
+    <mergeCell ref="H194:J194"/>
+    <mergeCell ref="K194:L194"/>
+    <mergeCell ref="B195:D195"/>
+    <mergeCell ref="E195:G195"/>
+    <mergeCell ref="H195:J195"/>
+    <mergeCell ref="K195:L195"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="E196:G196"/>
+    <mergeCell ref="H196:J196"/>
+    <mergeCell ref="K196:L196"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="E197:G197"/>
+    <mergeCell ref="H197:J197"/>
+    <mergeCell ref="K197:L197"/>
+    <mergeCell ref="B198:D198"/>
+    <mergeCell ref="E198:G198"/>
+    <mergeCell ref="H198:J198"/>
+    <mergeCell ref="K198:L198"/>
+    <mergeCell ref="B199:D199"/>
+    <mergeCell ref="E199:G199"/>
+    <mergeCell ref="H199:J199"/>
+    <mergeCell ref="K199:L199"/>
+    <mergeCell ref="B200:D200"/>
+    <mergeCell ref="E200:G200"/>
+    <mergeCell ref="H200:J200"/>
+    <mergeCell ref="K200:L200"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="E201:G201"/>
+    <mergeCell ref="H201:J201"/>
+    <mergeCell ref="K201:L201"/>
+    <mergeCell ref="B202:D202"/>
+    <mergeCell ref="E202:G202"/>
+    <mergeCell ref="H202:J202"/>
+    <mergeCell ref="K202:L202"/>
+    <mergeCell ref="B203:D203"/>
+    <mergeCell ref="E203:G203"/>
+    <mergeCell ref="H203:J203"/>
+    <mergeCell ref="K203:L203"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="E204:G204"/>
+    <mergeCell ref="H204:J204"/>
+    <mergeCell ref="K204:L204"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="E205:G205"/>
+    <mergeCell ref="H205:J205"/>
+    <mergeCell ref="K205:L205"/>
+    <mergeCell ref="B206:D206"/>
+    <mergeCell ref="E206:G206"/>
+    <mergeCell ref="H206:J206"/>
+    <mergeCell ref="K206:L206"/>
+    <mergeCell ref="B207:D207"/>
+    <mergeCell ref="E207:G207"/>
+    <mergeCell ref="H207:J207"/>
+    <mergeCell ref="K207:L207"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="E208:G208"/>
+    <mergeCell ref="H208:J208"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="E209:G209"/>
+    <mergeCell ref="H209:J209"/>
+    <mergeCell ref="K209:L209"/>
+    <mergeCell ref="B210:D210"/>
+    <mergeCell ref="E210:G210"/>
+    <mergeCell ref="H210:J210"/>
+    <mergeCell ref="K210:L210"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="E211:G211"/>
+    <mergeCell ref="H211:J211"/>
+    <mergeCell ref="K211:L211"/>
+    <mergeCell ref="B212:D212"/>
+    <mergeCell ref="E212:G212"/>
+    <mergeCell ref="H212:J212"/>
+    <mergeCell ref="K212:L212"/>
+    <mergeCell ref="B213:D213"/>
+    <mergeCell ref="E213:G213"/>
+    <mergeCell ref="H213:J213"/>
+    <mergeCell ref="K213:L213"/>
+    <mergeCell ref="B214:D214"/>
+    <mergeCell ref="E214:G214"/>
+    <mergeCell ref="H214:J214"/>
+    <mergeCell ref="K214:L214"/>
+    <mergeCell ref="B215:D215"/>
+    <mergeCell ref="E215:G215"/>
+    <mergeCell ref="H215:J215"/>
+    <mergeCell ref="K215:L215"/>
+    <mergeCell ref="B216:D216"/>
+    <mergeCell ref="E216:G216"/>
+    <mergeCell ref="H216:J216"/>
+    <mergeCell ref="K216:L216"/>
+    <mergeCell ref="B217:D217"/>
+    <mergeCell ref="E217:G217"/>
+    <mergeCell ref="H217:J217"/>
+    <mergeCell ref="K217:L217"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="E218:G218"/>
+    <mergeCell ref="H218:J218"/>
+    <mergeCell ref="K218:L218"/>
+    <mergeCell ref="B219:D219"/>
+    <mergeCell ref="E219:G219"/>
+    <mergeCell ref="H219:J219"/>
+    <mergeCell ref="K219:L219"/>
+    <mergeCell ref="B220:D220"/>
+    <mergeCell ref="E220:G220"/>
+    <mergeCell ref="H220:J220"/>
+    <mergeCell ref="K220:L220"/>
+    <mergeCell ref="B221:D221"/>
+    <mergeCell ref="E221:G221"/>
+    <mergeCell ref="H221:J221"/>
+    <mergeCell ref="K221:L221"/>
+    <mergeCell ref="B222:D222"/>
+    <mergeCell ref="E222:G222"/>
+    <mergeCell ref="H222:J222"/>
+    <mergeCell ref="K222:L222"/>
+    <mergeCell ref="B223:D223"/>
+    <mergeCell ref="E223:G223"/>
+    <mergeCell ref="H223:J223"/>
+    <mergeCell ref="K223:L223"/>
+    <mergeCell ref="B224:D224"/>
+    <mergeCell ref="E224:G224"/>
+    <mergeCell ref="H224:J224"/>
+    <mergeCell ref="K224:L224"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="E225:G225"/>
+    <mergeCell ref="H225:J225"/>
+    <mergeCell ref="K225:L225"/>
+    <mergeCell ref="B226:D226"/>
+    <mergeCell ref="E226:G226"/>
+    <mergeCell ref="H226:J226"/>
+    <mergeCell ref="K226:L226"/>
+    <mergeCell ref="B227:D227"/>
+    <mergeCell ref="E227:G227"/>
+    <mergeCell ref="H227:J227"/>
+    <mergeCell ref="K227:L227"/>
+    <mergeCell ref="B228:D228"/>
+    <mergeCell ref="E228:G228"/>
+    <mergeCell ref="H228:J228"/>
+    <mergeCell ref="K228:L228"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.71" right="0.71" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" scale="84" orientation="landscape"/>
 </worksheet>
 </file>